--- a/HWE.xlsx
+++ b/HWE.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HWE_SP" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="HWE_MF" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="HWE_MF" localSheetId="1">HWE_MF!$A$33:$Y$40</definedName>
+    <definedName name="HWE_MF_COL" localSheetId="1">HWE_MF!$A$38:$Y$47</definedName>
     <definedName name="HWE_SP_1" localSheetId="0">HWE_SP!$A$3:$O$13</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -24,7 +26,69 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="HWE_SP" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" name="HWE_MF" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\jwittische\Desktop\Projects\Syrphidae_LandGen\HWE_MF.csv" tab="0" comma="1">
+      <textFields count="25">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="HWE_MF_COL" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="C:\Users\jwittische\Desktop\Projects\Syrphidae_LandGen\HWE_MF_COL.csv" comma="1">
+      <textFields count="25">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="HWE_SP" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\jwittische\Desktop\Projects\Syrphidae_LandGen\HWE_SP.csv" tab="0" comma="1">
       <textFields count="15">
         <textField/>
@@ -49,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="65">
   <si>
     <t>Spp010</t>
   </si>
@@ -166,6 +230,84 @@
   </si>
   <si>
     <t>MF LUX</t>
+  </si>
+  <si>
+    <t>Strassen</t>
+  </si>
+  <si>
+    <t>MF COL</t>
+  </si>
+  <si>
+    <t>MF239</t>
+  </si>
+  <si>
+    <t>MF25</t>
+  </si>
+  <si>
+    <t>MF265</t>
+  </si>
+  <si>
+    <t>MF270</t>
+  </si>
+  <si>
+    <t>MF303</t>
+  </si>
+  <si>
+    <t>MF59</t>
+  </si>
+  <si>
+    <t>MF130</t>
+  </si>
+  <si>
+    <t>MF197</t>
+  </si>
+  <si>
+    <t>MF36</t>
+  </si>
+  <si>
+    <t>MF419</t>
+  </si>
+  <si>
+    <t>MF432</t>
+  </si>
+  <si>
+    <t>MF486</t>
+  </si>
+  <si>
+    <t>MF492</t>
+  </si>
+  <si>
+    <t>MF103</t>
+  </si>
+  <si>
+    <t>MF26</t>
+  </si>
+  <si>
+    <t>MF261</t>
+  </si>
+  <si>
+    <t>MF263</t>
+  </si>
+  <si>
+    <t>MF269</t>
+  </si>
+  <si>
+    <t>MF28</t>
+  </si>
+  <si>
+    <t>MF323</t>
+  </si>
+  <si>
+    <t>MF457</t>
+  </si>
+  <si>
+    <t>MF491</t>
+  </si>
+  <si>
+    <t>MF56</t>
+  </si>
+  <si>
+    <t>MF70</t>
   </si>
 </sst>
 </file>
@@ -509,7 +651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -653,6 +795,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -698,7 +860,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -708,6 +870,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -767,7 +931,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HWE_SP_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HWE_SP_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HWE_MF_COL" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HWE_MF" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1035,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1053,10 +1225,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2127,11 +2299,6 @@
       </c>
       <c r="H26" s="1">
         <v>0.34174300000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="36" spans="20:20" x14ac:dyDescent="0.25">
@@ -2145,12 +2312,1636 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" customWidth="1"/>
+    <col min="20" max="25" width="10.140625" style="1" customWidth="1"/>
+    <col min="26" max="37" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="K3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.5578999999999993E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.6806999999999999E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.55507799999999996</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.0230000000000001E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.5897999999999993E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.101428</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.187385</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.46371200000000001</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>6.6399999999999999E-4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.69739700000000004</v>
+      </c>
+      <c r="R4" s="2">
+        <v>8.2970000000000006E-3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.61767499999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.7626999999999999E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.672794</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.106715</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.114347</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.0088E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2.23E-4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.137541</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>5.7399999999999997E-4</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.44874900000000001</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.87460499999999997</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.71798700000000004</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.23504</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>4.258E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.57877900000000004</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.14565400000000001</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.11521099999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.19853399999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.51078999999999997</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.239346</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3.0294999999999999E-2</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>3.8479999999999999E-3</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.13456699999999999</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.91651700000000003</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.3631999999999999E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.72936400000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.36682199999999998</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.130799</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.11756900000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.110426</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.25547300000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.52136199999999999</v>
+      </c>
+      <c r="R8" s="1">
+        <v>6.2562999999999994E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.25473299999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.32683899999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.34338600000000002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.32760600000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.53351000000000004</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.25995400000000002</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>2.2502000000000001E-2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.43011300000000002</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.36452600000000002</v>
+      </c>
+      <c r="S9" s="2">
+        <v>3.4712E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.1939999999999999E-3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.55450600000000005</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.71896199999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.315471</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.46793499999999999</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2.4438000000000001E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>2.2504E-2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.67313299999999998</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.18525700000000001</v>
+      </c>
+      <c r="S10" s="1">
+        <v>9.8858000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.77974299999999996</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1.9699999999999999E-4</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.89921899999999999</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.20641999999999999</v>
+      </c>
+      <c r="S11" s="1">
+        <v>9.7777000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="3">
+        <v>6.2E-4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.76402000000000003</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>2.0950000000000001E-3</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.683952</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.95299900000000004</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.44377299999999997</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.79133900000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.59938000000000002</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.32157799999999997</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.62912999999999997</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4.3574000000000002E-2</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.55052500000000004</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.38685799999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.96487999999999996</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.48214699999999999</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.7192000000000001E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.902E-3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.77069299999999996</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.168765</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.25204199999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.14541100000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.53412300000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.206174</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.73693900000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.13347700000000001</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.36095500000000003</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.25944499999999998</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.34087499999999998</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.52872399999999997</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.89673599999999998</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.56128199999999995</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.271476</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1.4024E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.6722000000000001E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9.2300000000000004E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.19389000000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.68353699999999995</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4.2494999999999998E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4.0703000000000003E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2.6882E-2</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.26696900000000001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.42308800000000002</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.103394</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.18856300000000001</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1.0739E-2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.52212499999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.19539000000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.1333</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.41685299999999997</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.676678</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.16447300000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.11173</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.17315800000000001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.99532799999999999</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.212558</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.55929799999999996</v>
+      </c>
+      <c r="P18" s="1">
+        <v>9.7795000000000007E-2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2.5502E-2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.28425600000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.62490000000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.484512</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9.0227000000000002E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5.9087000000000001E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2.078E-3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.37181599999999998</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.29657</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.70226599999999995</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.65358000000000005</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.74624299999999999</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.42344900000000002</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.44070500000000001</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.63089899999999999</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.85390299999999997</v>
+      </c>
+      <c r="S19" s="1">
+        <v>7.6916999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.30896000000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.57765999999999995</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.50506300000000004</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.14976300000000001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.32637300000000002</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3.9085000000000002E-2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.321135</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.61237200000000003</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.83189199999999996</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.82011299999999998</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>8.8288000000000005E-2</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.34332099999999999</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0.26086300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.49611899999999998</v>
+      </c>
+      <c r="M21" s="2">
+        <v>4.8247999999999999E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.76189099999999998</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.938751</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.48505199999999998</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0.11179699999999999</v>
+      </c>
+      <c r="S21" s="1">
+        <v>8.677E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.46571400000000002</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.30990299999999998</v>
+      </c>
+      <c r="N22" s="1">
+        <v>9.1547000000000003E-2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.88245300000000004</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.42905300000000002</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.63167600000000002</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1</v>
+      </c>
+      <c r="S22" s="3">
+        <v>7.1900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="K23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.68718100000000004</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.54865900000000001</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.73801799999999995</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.19096299999999999</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.15699199999999999</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.148395</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.15958600000000001</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.53132800000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.78547699999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.113272</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.82777400000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.50376900000000002</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.69958799999999999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>4.3574000000000002E-2</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="1">
+        <v>7.8088000000000005E-2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.46864400000000001</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.49865799999999999</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.53976199999999996</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.57562400000000002</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.44032100000000002</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.24212500000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.94047400000000003</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.18588099999999999</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.7074E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5.2615000000000002E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.109878</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.51759900000000003</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.18432899999999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.28085599999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.77956700000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.12357</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3.7608999999999997E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.60136199999999995</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.68908899999999995</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.69098700000000002</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4.4299999999999998E-4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4.6591E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.89909399999999995</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.111153</v>
+      </c>
+      <c r="H27" s="2">
+        <v>8.9510000000000006E-3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>6.1289000000000003E-2</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.60471200000000003</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.386986</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.74154799999999998</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.39044299999999998</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>8.8078000000000004E-2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.11532100000000001</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.26239600000000002</v>
+      </c>
+      <c r="N28" s="2">
+        <v>3.5804000000000002E-2</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.34973199999999999</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.81672100000000003</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>6.6249000000000002E-2</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.19992599999999999</v>
+      </c>
+      <c r="S28" s="3">
+        <v>4.9950000000000003E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.97177100000000005</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3.5937999999999998E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.101381</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.30915599999999999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.67393199999999998</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.15348300000000001</v>
+      </c>
+      <c r="M29" s="2">
+        <v>2.2494E-2</v>
+      </c>
+      <c r="N29" s="1">
+        <v>8.0211000000000005E-2</v>
+      </c>
+      <c r="O29" s="1">
+        <v>6.1459E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.291601</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.17575099999999999</v>
+      </c>
+      <c r="S29" s="3">
+        <v>2.7115E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.40337000000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.565805</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.57569099999999995</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.81141200000000002</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5.1809999999999998E-3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.87736999999999998</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>9.9554000000000004E-2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.93237400000000004</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.34322599999999998</v>
+      </c>
+      <c r="R30" s="3">
+        <v>2.2939999999999999E-2</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0.16899800000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.68941699999999995</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.26973999999999998</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.189664</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.19771900000000001</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.54293999999999998</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.63611700000000004</v>
+      </c>
+      <c r="R31" s="3">
+        <v>5.1390000000000003E-3</v>
+      </c>
+      <c r="S31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.47784700000000002</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1.3073E-2</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.41575200000000001</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.79857999999999996</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0.93880600000000003</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1.0607E-2</v>
+      </c>
+      <c r="S32" s="3">
+        <v>1.4454E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.49591200000000002</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.34555799999999998</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.80957000000000001</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.912547</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.26177800000000001</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>7.3996000000000006E-2</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0.37123499999999998</v>
+      </c>
+      <c r="S33" s="3">
+        <v>1.256E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.55096199999999995</v>
+      </c>
+      <c r="M34" s="1">
+        <v>7.3152999999999996E-2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.41170299999999999</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.65554199999999996</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.85266900000000001</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.43200100000000002</v>
+      </c>
+      <c r="R34" s="3">
+        <v>4.8459999999999996E-3</v>
+      </c>
+      <c r="S34" s="1">
+        <v>8.0643000000000006E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.86010600000000004</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.384907</v>
+      </c>
+      <c r="N35" s="2">
+        <v>4.5418E-2</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1.5526999999999999E-2</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.80726100000000001</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.88957600000000003</v>
+      </c>
+      <c r="R35" s="3">
+        <v>7.0179999999999999E-3</v>
+      </c>
+      <c r="S35" s="1">
+        <v>6.0242999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.58043900000000004</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.16183700000000001</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.33633000000000002</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.53405400000000003</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>6.7840000000000001E-3</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0.62452200000000002</v>
+      </c>
+      <c r="S36" s="3">
+        <v>5.6020000000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>